--- a/Entrega Tutorias.xlsx
+++ b/Entrega Tutorias.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,13 +456,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Entrega Tutorias.xlsx
+++ b/Entrega Tutorias.xlsx
@@ -669,13 +669,13 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
